--- a/Template/input_template_niger_psra.xlsx
+++ b/Template/input_template_niger_psra.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelfive/Desktop/R Directory/Git learning/MR-automation/Template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFD831B-CCE4-9645-8768-FD1AC2E46FC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A840E597-6BDA-7D4F-86F9-5EC8A3E97C67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="2" xr2:uid="{23A01AAA-5861-0842-AB9B-F1A19BD3FEAA}"/>
   </bookViews>
@@ -62,9 +62,6 @@
     <t>model_inv_age</t>
   </si>
   <si>
-    <t>model_lg_inv</t>
-  </si>
-  <si>
     <t>Niger Year 1 (2016-2017)</t>
   </si>
   <si>
@@ -246,6 +243,9 @@
   </si>
   <si>
     <t>PSRA1_EFA.out</t>
+  </si>
+  <si>
+    <t>model_inv_lg</t>
   </si>
 </sst>
 </file>
@@ -622,13 +622,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -648,146 +648,146 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>27</v>
-      </c>
-      <c r="F1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
         <v>41</v>
-      </c>
-      <c r="F2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
         <v>31</v>
       </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
         <v>43</v>
-      </c>
-      <c r="F3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
         <v>33</v>
       </c>
-      <c r="B4" t="s">
-        <v>34</v>
-      </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
         <v>45</v>
-      </c>
-      <c r="F4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
         <v>35</v>
       </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" t="s">
         <v>47</v>
-      </c>
-      <c r="F5" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -799,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601705C5-50A2-7A46-BFF2-1E1E17DB5A98}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="209" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="209" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -814,7 +814,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -829,73 +829,73 @@
         <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Template/input_template_niger_psra.xlsx
+++ b/Template/input_template_niger_psra.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelfive/Desktop/R Directory/Git learning/MR-automation/Template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A840E597-6BDA-7D4F-86F9-5EC8A3E97C67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CAA5B0-55BD-3E4D-8C9E-5E0498F129E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="2" xr2:uid="{23A01AAA-5861-0842-AB9B-F1A19BD3FEAA}"/>
+    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{23A01AAA-5861-0842-AB9B-F1A19BD3FEAA}"/>
   </bookViews>
   <sheets>
-    <sheet name="text" sheetId="1" r:id="rId1"/>
+    <sheet name="path" sheetId="1" r:id="rId1"/>
     <sheet name="subscale" sheetId="3" r:id="rId2"/>
     <sheet name="model" sheetId="4" r:id="rId3"/>
   </sheets>
@@ -50,9 +50,6 @@
     <t>data_file_path</t>
   </si>
   <si>
-    <t>~/Box/3EA Analysis/3EA Lebanon_Analysis/Lebanon_Y1_FA/LBY1_PREIMPUTED_FULL_SPREAD_10-31-2019_mplus.dta</t>
-  </si>
-  <si>
     <t>model_inv_tx</t>
   </si>
   <si>
@@ -65,9 +62,6 @@
     <t>Niger Year 1 (2016-2017)</t>
   </si>
   <si>
-    <t>~/Box/For Zezhen/MR automation/Test Data_Niger/PSRA</t>
-  </si>
-  <si>
     <t>PSRA1_2</t>
   </si>
   <si>
@@ -246,6 +240,12 @@
   </si>
   <si>
     <t>model_inv_lg</t>
+  </si>
+  <si>
+    <t>/Users/michaelfive/Box/Box 3EA Team Folder/For Zezhen/MR automation/Test Data_Niger/PSRA</t>
+  </si>
+  <si>
+    <t>/Users/michaelfive/Box/Box 3EA Team Folder/3EA Analysis/3EA Lebanon_Analysis/Lebanon_Y1_FA/LBY1_PREIMPUTED_FULL_SPREAD_10-31-2019_mplus.dta</t>
   </si>
 </sst>
 </file>
@@ -599,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C27BFF5F-7205-9748-9F48-9C16FDA3EB73}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView zoomScale="192" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="192" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -622,13 +622,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -648,146 +648,146 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>25</v>
-      </c>
-      <c r="E1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -799,7 +799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601705C5-50A2-7A46-BFF2-1E1E17DB5A98}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="209" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="209" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -814,88 +814,88 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
       <c r="F1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Template/input_template_niger_psra.xlsx
+++ b/Template/input_template_niger_psra.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelfive/Desktop/R Directory/Git learning/MR-automation/Template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CAA5B0-55BD-3E4D-8C9E-5E0498F129E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC286AF-021E-3E4D-9410-B7FD05EED4B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{23A01AAA-5861-0842-AB9B-F1A19BD3FEAA}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{23A01AAA-5861-0842-AB9B-F1A19BD3FEAA}"/>
   </bookViews>
   <sheets>
     <sheet name="path" sheetId="1" r:id="rId1"/>
     <sheet name="subscale" sheetId="3" r:id="rId2"/>
     <sheet name="model" sheetId="4" r:id="rId3"/>
+    <sheet name="description" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>model_file_path</t>
   </si>
@@ -246,6 +247,99 @@
   </si>
   <si>
     <t>/Users/michaelfive/Box/Box 3EA Team Folder/3EA Analysis/3EA Lebanon_Analysis/Lebanon_Y1_FA/LBY1_PREIMPUTED_FULL_SPREAD_10-31-2019_mplus.dta</t>
+  </si>
+  <si>
+    <t>measure</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Item description</t>
+  </si>
+  <si>
+    <t>PSRA1</t>
+  </si>
+  <si>
+    <t>Pays attention to instructions and demonstration</t>
+  </si>
+  <si>
+    <t>PSRA2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Careful, interested in accuracy </t>
+  </si>
+  <si>
+    <t>PSRA3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sustains concentration; willing to try repetitive tasks </t>
+  </si>
+  <si>
+    <t>PSRA4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is careless or destructive with test materials </t>
+  </si>
+  <si>
+    <t>PSRA5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can wait during and between tasks </t>
+  </si>
+  <si>
+    <t>PSRA6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remains in seat appropriately during the test </t>
+  </si>
+  <si>
+    <t>PSRA7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alert and interactive; is not withdrawn </t>
+  </si>
+  <si>
+    <t>PSRA8</t>
+  </si>
+  <si>
+    <t>Cooperates; complies with requests</t>
+  </si>
+  <si>
+    <t>PSRA9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shows pleasure in accomplishment and active task mastery </t>
+  </si>
+  <si>
+    <t>PSRA10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confident </t>
+  </si>
+  <si>
+    <t>PSRA11</t>
+  </si>
+  <si>
+    <t>Defiant</t>
+  </si>
+  <si>
+    <t>PSRA12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passively noncompliant </t>
+  </si>
+  <si>
+    <t>PSRA13</t>
+  </si>
+  <si>
+    <t>Modulates and regulates arousal level in self</t>
+  </si>
+  <si>
+    <t>fs_data_file_path</t>
+  </si>
+  <si>
+    <t>PSRA</t>
   </si>
 </sst>
 </file>
@@ -597,37 +691,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C27BFF5F-7205-9748-9F48-9C16FDA3EB73}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="192" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" customWidth="1"/>
+    <col min="1" max="2" width="26.1640625" customWidth="1"/>
+    <col min="3" max="4" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
         <v>69</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>68</v>
       </c>
     </row>
@@ -799,7 +902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601705C5-50A2-7A46-BFF2-1E1E17DB5A98}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="209" workbookViewId="0">
+    <sheetView zoomScale="209" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -901,4 +1004,134 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D14B36FC-9B37-E14A-A9E5-66CA00B57181}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="50.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>